--- a/src/protrend/report/integration_report.xlsx
+++ b/src/protrend/report/integration_report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/PhD/Protrend/main/protrend-database/src/protrend/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_74EDC5EC8754609F6440F437525DCE3A8747917E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4CB85E-1D5E-42A9-971D-6025A4B1EF63}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_74EDC5EC8754609F6440F437525DCE3A8747917E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{587D1AA9-3C7C-4F57-8A1D-C1806CB1C3FC}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="latex table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="30">
   <si>
     <t>Effector</t>
   </si>
@@ -116,6 +117,12 @@
   </si>
   <si>
     <t>RegPrecise</t>
+  </si>
+  <si>
+    <t>R. Family</t>
+  </si>
+  <si>
+    <t>R. Interaction</t>
   </si>
 </sst>
 </file>
@@ -233,11 +240,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -245,14 +249,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +583,7 @@
     <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -627,1678 +633,3108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>11662</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
         <v>707</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
         <v>11332</v>
       </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
         <v>11543</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
         <v>707</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3">
         <v>11332</v>
       </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>9423</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
         <v>526</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4">
         <v>11329</v>
       </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
         <v>9423</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4">
         <v>526</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4">
         <v>11329</v>
       </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
         <v>56</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1980</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
         <v>153</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3">
         <v>526</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>342</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3">
         <v>2539</v>
       </c>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>3649</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>56</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>1976</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
         <v>153</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
         <v>526</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>236</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7">
         <v>2539</v>
       </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
         <v>3579</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>56</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>1976</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
         <v>153</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
         <v>526</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>230</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8">
         <v>2539</v>
       </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
         <v>3579</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
         <v>56</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>1976</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
         <v>153</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4">
         <v>526</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>230</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4">
         <v>2539</v>
       </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
         <v>3579</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3921</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
         <v>465</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>539</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10">
         <v>9051</v>
       </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
         <v>4841</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>3881</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
         <v>465</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>538</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11">
         <v>9051</v>
       </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
         <v>4479</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>419</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
         <v>441</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>168</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12">
         <v>8844</v>
       </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6">
         <v>4479</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>419</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4">
         <v>441</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>168</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="L13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4">
         <v>8844</v>
       </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7">
         <v>4479</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
         <v>682</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
         <v>819</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>109</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>1163</v>
       </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>682</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
         <v>819</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>109</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>1163</v>
       </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="9">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
         <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
         <v>462</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>1000</v>
       </c>
-      <c r="N16" s="5">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
         <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
         <v>20</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4">
         <v>462</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <v>1000</v>
       </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
         <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>140</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
         <v>4859</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3">
         <v>3</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="4">
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3">
         <v>530</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="L18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18">
         <v>12057</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>3</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>140</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
         <v>4859</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19">
         <v>530</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19">
         <v>12057</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19">
         <v>3</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>90</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>649</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20">
         <v>29</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20">
         <v>9549</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>90</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
         <v>649</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="4">
         <v>29</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="L21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="4">
         <v>9549</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="4">
         <v>3</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
         <v>11966</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="8" t="s">
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>11966</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9" t="s">
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4">
         <v>11966</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="6">
-        <v>1</v>
-      </c>
-      <c r="O24" s="10" t="s">
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
         <v>3232959</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
         <v>6135320</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="H25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
         <v>485</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="8" t="s">
+      <c r="K25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
         <v>12156</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
         <v>22905</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="5">
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26">
         <v>137</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="9" t="s">
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
         <v>492</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
         <v>22905</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27">
         <v>66</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="5">
-        <v>1</v>
-      </c>
-      <c r="O27" s="9" t="s">
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4">
         <v>492</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4">
         <v>22905</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="4">
         <v>66</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="K28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>308</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3">
         <v>116716</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3">
         <v>524</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29">
         <v>287</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>311</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>15432</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
         <v>171</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29">
         <v>155893</v>
       </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="8">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
         <v>62483</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>308</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
         <v>89245</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
         <v>524</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30">
         <v>287</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30">
         <v>311</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
         <v>11605</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30">
         <v>171</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30">
         <v>155893</v>
       </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="O30" s="9">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" s="6">
         <v>61965</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>308</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
         <v>88477</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
         <v>460</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31">
         <v>287</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31">
         <v>299</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>11518</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31">
         <v>171</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31">
         <v>155893</v>
       </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="9">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6">
         <v>61965</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>308</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="4">
         <v>88477</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4">
         <v>460</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="4">
         <v>287</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="4">
         <v>299</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="4">
         <v>11518</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="4">
         <v>171</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="4">
         <v>155893</v>
       </c>
-      <c r="N32" s="6">
-        <v>1</v>
-      </c>
-      <c r="O32" s="10">
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7">
         <v>61965</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>137</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>127</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>4168</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33">
         <v>16730</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>199</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>52</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33">
         <v>11384</v>
       </c>
-      <c r="N33" s="5">
-        <v>1</v>
-      </c>
-      <c r="O33" s="8">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
         <v>6124</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34">
         <v>137</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <v>127</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34">
         <v>4085</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="5">
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34">
         <v>16730</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34">
         <v>199</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34">
         <v>52</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34">
         <v>11384</v>
       </c>
-      <c r="N34" s="5">
-        <v>1</v>
-      </c>
-      <c r="O34" s="9">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
         <v>6124</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>103</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>123</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <v>1565</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35">
         <v>16628</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>7</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35">
         <v>30</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35">
         <v>6540</v>
       </c>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="O35" s="9">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
         <v>6117</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>103</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>123</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>1565</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="6">
+      <c r="F36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="4">
         <v>16628</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="4">
         <v>7</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="4">
         <v>30</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="4">
         <v>6540</v>
       </c>
-      <c r="N36" s="6">
-        <v>1</v>
-      </c>
-      <c r="O36" s="10">
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="7">
         <v>6117</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>95</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>104</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>3483</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>90</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>11</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>16230</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>172</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <v>47</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <v>111</v>
       </c>
-      <c r="N37" s="4">
-        <v>1</v>
-      </c>
-      <c r="O37" s="8">
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
         <v>3154</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="10"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A38"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375625D-FF4A-4127-8AB9-CEF9F308BACA}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>11662</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>707</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>11332</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>11543</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>707</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>11332</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>9423</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>526</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>11329</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9423</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>526</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4">
+        <v>11329</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1980</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>153</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3">
+        <v>526</v>
+      </c>
+      <c r="J6" s="3">
+        <v>342</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2539</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>1976</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3">
+        <v>153</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>526</v>
+      </c>
+      <c r="J7">
+        <v>236</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>2539</v>
+      </c>
+      <c r="M7" s="6">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>1976</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>153</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>526</v>
+      </c>
+      <c r="J8">
+        <v>230</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>2539</v>
+      </c>
+      <c r="M8" s="6">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1976</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>153</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4">
+        <v>526</v>
+      </c>
+      <c r="J9" s="4">
+        <v>230</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2539</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3921</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>465</v>
+      </c>
+      <c r="J10" s="3">
+        <v>539</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>9051</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3881</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>465</v>
+      </c>
+      <c r="J11">
+        <v>538</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>9051</v>
+      </c>
+      <c r="M11" s="6">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>419</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>441</v>
+      </c>
+      <c r="J12">
+        <v>168</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <v>8844</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>419</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4">
+        <v>441</v>
+      </c>
+      <c r="J13" s="4">
+        <v>168</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4">
+        <v>8844</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3">
+        <v>682</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>819</v>
+      </c>
+      <c r="J14" s="3">
+        <v>109</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1163</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>682</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>819</v>
+      </c>
+      <c r="J15">
+        <v>109</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1163</v>
+      </c>
+      <c r="M15" s="6">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>462</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4">
+        <v>462</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="7">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>140</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4859</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3">
+        <v>530</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>12057</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>4859</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>530</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>12057</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>649</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>9549</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <v>90</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>649</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4">
+        <v>29</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9549</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>3232959</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6135320</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>485</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>12156</v>
+      </c>
+      <c r="F23">
+        <v>22905</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>137</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>492</v>
+      </c>
+      <c r="F24">
+        <v>22905</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4">
+        <v>492</v>
+      </c>
+      <c r="F25" s="4">
+        <v>22905</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4">
+        <v>66</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3">
+        <v>308</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3">
+        <v>116716</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3">
+        <v>524</v>
+      </c>
+      <c r="H26">
+        <v>287</v>
+      </c>
+      <c r="I26">
+        <v>311</v>
+      </c>
+      <c r="J26" s="3">
+        <v>15432</v>
+      </c>
+      <c r="K26">
+        <v>171</v>
+      </c>
+      <c r="L26">
+        <v>155893</v>
+      </c>
+      <c r="M26" s="5">
+        <v>62483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>308</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>89245</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>524</v>
+      </c>
+      <c r="H27">
+        <v>287</v>
+      </c>
+      <c r="I27">
+        <v>311</v>
+      </c>
+      <c r="J27">
+        <v>11605</v>
+      </c>
+      <c r="K27">
+        <v>171</v>
+      </c>
+      <c r="L27">
+        <v>155893</v>
+      </c>
+      <c r="M27" s="6">
+        <v>61965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>308</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>88477</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>460</v>
+      </c>
+      <c r="H28">
+        <v>287</v>
+      </c>
+      <c r="I28">
+        <v>299</v>
+      </c>
+      <c r="J28">
+        <v>11518</v>
+      </c>
+      <c r="K28">
+        <v>171</v>
+      </c>
+      <c r="L28">
+        <v>155893</v>
+      </c>
+      <c r="M28" s="6">
+        <v>61965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4">
+        <v>308</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4">
+        <v>88477</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4">
+        <v>460</v>
+      </c>
+      <c r="H29" s="4">
+        <v>287</v>
+      </c>
+      <c r="I29" s="4">
+        <v>299</v>
+      </c>
+      <c r="J29" s="4">
+        <v>11518</v>
+      </c>
+      <c r="K29" s="4">
+        <v>171</v>
+      </c>
+      <c r="L29" s="4">
+        <v>155893</v>
+      </c>
+      <c r="M29" s="7">
+        <v>61965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3">
+        <v>137</v>
+      </c>
+      <c r="D30">
+        <v>127</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4168</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>16730</v>
+      </c>
+      <c r="J30" s="3">
+        <v>199</v>
+      </c>
+      <c r="K30">
+        <v>52</v>
+      </c>
+      <c r="L30">
+        <v>11384</v>
+      </c>
+      <c r="M30" s="5">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>137</v>
+      </c>
+      <c r="D31">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>4085</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>16730</v>
+      </c>
+      <c r="J31">
+        <v>199</v>
+      </c>
+      <c r="K31">
+        <v>52</v>
+      </c>
+      <c r="L31">
+        <v>11384</v>
+      </c>
+      <c r="M31" s="6">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>103</v>
+      </c>
+      <c r="D32">
+        <v>123</v>
+      </c>
+      <c r="E32">
+        <v>1565</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>16628</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>6540</v>
+      </c>
+      <c r="M32" s="6">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4">
+        <v>123</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1565</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="4">
+        <v>16628</v>
+      </c>
+      <c r="J33" s="4">
+        <v>7</v>
+      </c>
+      <c r="K33" s="4">
+        <v>30</v>
+      </c>
+      <c r="L33" s="4">
+        <v>6540</v>
+      </c>
+      <c r="M33" s="7">
+        <v>6117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <conditionalFormatting sqref="A1:M5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:M9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:M13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:M17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:M21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:M25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:M29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:M33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/protrend/report/integration_report.xlsx
+++ b/src/protrend/report/integration_report.xlsx
@@ -253,10 +253,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -634,7 +634,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -681,7 +681,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -816,7 +816,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -953,7 +953,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +1317,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
@@ -2227,7 +2227,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
@@ -2294,16 +2294,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2365,7 +2365,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2406,7 +2406,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2445,7 +2445,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2523,7 +2523,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2603,7 +2603,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +2681,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2880,7 +2880,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3038,7 +3038,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3354,7 +3354,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3512,7 +3512,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3551,7 +3551,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
